--- a/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_35.xlsx
+++ b/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_35.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_35_0</t>
+          <t>model_1_35_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9993808595436738</v>
+        <v>0.9463591509533879</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8246227116856979</v>
+        <v>0.7080297147213679</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8123484175239428</v>
+        <v>0.7614627237077767</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9995285432009458</v>
+        <v>0.9643265732012245</v>
       </c>
       <c r="F2" t="n">
-        <v>0.002577188678546718</v>
+        <v>0.1722025305272775</v>
       </c>
       <c r="G2" t="n">
-        <v>1.172748734495898</v>
+        <v>1.952406642057758</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6712188298529405</v>
+        <v>0.8532340061113131</v>
       </c>
       <c r="I2" t="n">
-        <v>0.002495966555859765</v>
+        <v>0.08866169468278792</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1046058287052344</v>
+        <v>1.135881845620294</v>
       </c>
       <c r="K2" t="n">
-        <v>0.05076601893537367</v>
+        <v>0.4149729274630786</v>
       </c>
       <c r="L2" t="n">
-        <v>1.039624989204874</v>
+        <v>0.9269571417237622</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0515655329862048</v>
+        <v>0.4215083362498818</v>
       </c>
       <c r="N2" t="n">
-        <v>141.9221122672743</v>
+        <v>37.51816798363225</v>
       </c>
       <c r="O2" t="n">
-        <v>283.2572848104907</v>
+        <v>74.48275157185807</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_35_1</t>
+          <t>model_1_35_8</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9993987959124139</v>
+        <v>0.9463011490491322</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8245906619095302</v>
+        <v>0.7075665287727585</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8120757818932181</v>
+        <v>0.7612158541118671</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9995066620055032</v>
+        <v>0.9653350744814672</v>
       </c>
       <c r="F3" t="n">
-        <v>0.002502528064822002</v>
+        <v>0.1723887332974749</v>
       </c>
       <c r="G3" t="n">
-        <v>1.172963051496706</v>
+        <v>1.955503968628885</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6721940316957212</v>
+        <v>0.85411704434156</v>
       </c>
       <c r="I3" t="n">
-        <v>0.002611809051155956</v>
+        <v>0.08615519501006388</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1160142176637768</v>
+        <v>1.13601077462285</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05002527426033766</v>
+        <v>0.4151972221697479</v>
       </c>
       <c r="L3" t="n">
-        <v>1.038477061605512</v>
+        <v>0.926878160407329</v>
       </c>
       <c r="M3" t="n">
-        <v>0.05081312232301</v>
+        <v>0.4217361633739687</v>
       </c>
       <c r="N3" t="n">
-        <v>141.9809076642474</v>
+        <v>37.5160065499818</v>
       </c>
       <c r="O3" t="n">
-        <v>283.3160802074638</v>
+        <v>74.48059013820762</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_35_3</t>
+          <t>model_1_35_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.999471478959352</v>
+        <v>0.9462370914689076</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8244033915618239</v>
+        <v>0.7070977087854113</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8117803604634071</v>
+        <v>0.7609585863289332</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9995072240575467</v>
+        <v>0.9663293013365598</v>
       </c>
       <c r="F4" t="n">
-        <v>0.002199982941535285</v>
+        <v>0.1725943765266595</v>
       </c>
       <c r="G4" t="n">
-        <v>1.174215329174119</v>
+        <v>1.958638970042993</v>
       </c>
       <c r="H4" t="n">
-        <v>0.673250737020636</v>
+        <v>0.8550372762838716</v>
       </c>
       <c r="I4" t="n">
-        <v>0.002608833459105996</v>
+        <v>0.08368417257734727</v>
       </c>
       <c r="J4" t="n">
-        <v>0.115887548325986</v>
+        <v>1.136179161393476</v>
       </c>
       <c r="K4" t="n">
-        <v>0.04690397575403694</v>
+        <v>0.4154447935967661</v>
       </c>
       <c r="L4" t="n">
-        <v>1.033825346601475</v>
+        <v>0.9267909330640444</v>
       </c>
       <c r="M4" t="n">
-        <v>0.04764266648538883</v>
+        <v>0.4219876338034818</v>
       </c>
       <c r="N4" t="n">
-        <v>142.2386113449911</v>
+        <v>37.51362216364304</v>
       </c>
       <c r="O4" t="n">
-        <v>283.5737838882075</v>
+        <v>74.47820575186886</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_35_4</t>
+          <t>model_1_35_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9994977715940868</v>
+        <v>0.9461668194212877</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8242925647064285</v>
+        <v>0.7066231704061589</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8116152963533597</v>
+        <v>0.7606909537191866</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9995318083970232</v>
+        <v>0.9673088613516924</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0020905391475212</v>
+        <v>0.1728199699809121</v>
       </c>
       <c r="G5" t="n">
-        <v>1.174956428866459</v>
+        <v>1.961812210370103</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6738411617713086</v>
+        <v>0.8559945826107049</v>
       </c>
       <c r="I5" t="n">
-        <v>0.002478680093507503</v>
+        <v>0.08124960268096354</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1124252252160712</v>
+        <v>1.136338131184411</v>
       </c>
       <c r="K5" t="n">
-        <v>0.04572241406051523</v>
+        <v>0.4157162132764515</v>
       </c>
       <c r="L5" t="n">
-        <v>1.032142617978444</v>
+        <v>0.9266952434672854</v>
       </c>
       <c r="M5" t="n">
-        <v>0.04644249637632252</v>
+        <v>0.4222633280718021</v>
       </c>
       <c r="N5" t="n">
-        <v>142.3406665619032</v>
+        <v>37.51100972454073</v>
       </c>
       <c r="O5" t="n">
-        <v>283.6758391051196</v>
+        <v>74.47559331276656</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_35_6</t>
+          <t>model_1_35_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9995060711010538</v>
+        <v>0.9460901470326083</v>
       </c>
       <c r="C6" t="n">
-        <v>0.824248164746482</v>
+        <v>0.7061428125119784</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8119622570441938</v>
+        <v>0.7604122659292689</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9995243022231568</v>
+        <v>0.9682728845691003</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002055992228200437</v>
+        <v>0.1730661103680766</v>
       </c>
       <c r="G6" t="n">
-        <v>1.175253331603064</v>
+        <v>1.965024365820332</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6726001034981319</v>
+        <v>0.856991432675994</v>
       </c>
       <c r="I6" t="n">
-        <v>0.00251841896029374</v>
+        <v>0.0788536474885714</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1114334386052036</v>
+        <v>1.136490714765611</v>
       </c>
       <c r="K6" t="n">
-        <v>0.04534305049509172</v>
+        <v>0.4160121517072267</v>
       </c>
       <c r="L6" t="n">
-        <v>1.031611449532555</v>
+        <v>0.9265908385124879</v>
       </c>
       <c r="M6" t="n">
-        <v>0.04605715821396803</v>
+        <v>0.4225639272370321</v>
       </c>
       <c r="N6" t="n">
-        <v>142.373993422909</v>
+        <v>37.50816323325129</v>
       </c>
       <c r="O6" t="n">
-        <v>283.7091659661255</v>
+        <v>74.47274682147712</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_35_5</t>
+          <t>model_1_35_4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.999509649539094</v>
+        <v>0.9460069204770697</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8242100331014987</v>
+        <v>0.7056565868745104</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8117474308464682</v>
+        <v>0.7601226493635957</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9995450144702978</v>
+        <v>0.9692208793223438</v>
       </c>
       <c r="F7" t="n">
-        <v>0.002041096884325331</v>
+        <v>0.1733332915131468</v>
       </c>
       <c r="G7" t="n">
-        <v>1.175508318088648</v>
+        <v>1.968275758896943</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6733685243510577</v>
+        <v>0.8580273743384733</v>
       </c>
       <c r="I7" t="n">
-        <v>0.002408765061433308</v>
+        <v>0.07649752897360337</v>
       </c>
       <c r="J7" t="n">
-        <v>0.111091411582017</v>
+        <v>1.136793124319041</v>
       </c>
       <c r="K7" t="n">
-        <v>0.04517850024431235</v>
+        <v>0.416333149668804</v>
       </c>
       <c r="L7" t="n">
-        <v>1.031382429497981</v>
+        <v>0.9264775087347332</v>
       </c>
       <c r="M7" t="n">
-        <v>0.04589001646122879</v>
+        <v>0.4228899805956241</v>
       </c>
       <c r="N7" t="n">
-        <v>142.3885358544677</v>
+        <v>37.50507799469022</v>
       </c>
       <c r="O7" t="n">
-        <v>283.7237083976841</v>
+        <v>74.46966158291605</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_35_2</t>
+          <t>model_1_35_3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9994435672855527</v>
+        <v>0.9459168827536084</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8242039458664012</v>
+        <v>0.7051644279043816</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8125433554443243</v>
+        <v>0.7598213538352622</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9995343493863172</v>
+        <v>0.9701519284286064</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002316166028877931</v>
+        <v>0.1736223384633445</v>
       </c>
       <c r="G8" t="n">
-        <v>1.175549023457774</v>
+        <v>1.971566828196378</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6705215482148862</v>
+        <v>0.859105090973204</v>
       </c>
       <c r="I8" t="n">
-        <v>0.002465227695939839</v>
+        <v>0.07418352667548428</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1136249917738469</v>
+        <v>1.137165689638704</v>
       </c>
       <c r="K8" t="n">
-        <v>0.04812656261232388</v>
+        <v>0.4166801392715335</v>
       </c>
       <c r="L8" t="n">
-        <v>1.035611693724626</v>
+        <v>0.9263549041751263</v>
       </c>
       <c r="M8" t="n">
-        <v>0.04888450786455531</v>
+        <v>0.4232424349377342</v>
       </c>
       <c r="N8" t="n">
-        <v>142.1356840681394</v>
+        <v>37.50174561449984</v>
       </c>
       <c r="O8" t="n">
-        <v>283.4708566113558</v>
+        <v>74.46632920272566</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_35_7</t>
+          <t>model_1_35_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.999560621713718</v>
+        <v>0.9458199352919212</v>
       </c>
       <c r="C9" t="n">
-        <v>0.822356001641087</v>
+        <v>0.7046662084953574</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8118724192348099</v>
+        <v>0.759508405041967</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9997331813155205</v>
+        <v>0.971065514191332</v>
       </c>
       <c r="F9" t="n">
-        <v>0.001828923846657742</v>
+        <v>0.1739335676576519</v>
       </c>
       <c r="G9" t="n">
-        <v>1.187906235001451</v>
+        <v>1.974898423678612</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6729214481332028</v>
+        <v>0.8602244906610073</v>
       </c>
       <c r="I9" t="n">
-        <v>0.001412580143664213</v>
+        <v>0.07191292726213895</v>
       </c>
       <c r="J9" t="n">
-        <v>0.08872223901234993</v>
+        <v>1.137526436192029</v>
       </c>
       <c r="K9" t="n">
-        <v>0.04276591921913689</v>
+        <v>0.4170534350148095</v>
       </c>
       <c r="L9" t="n">
-        <v>1.028120210322051</v>
+        <v>0.9262228906102757</v>
       </c>
       <c r="M9" t="n">
-        <v>0.04343943969660306</v>
+        <v>0.4236216097158079</v>
       </c>
       <c r="N9" t="n">
-        <v>142.6080550940814</v>
+        <v>37.49816369548174</v>
       </c>
       <c r="O9" t="n">
-        <v>283.9432276372978</v>
+        <v>74.46274728370756</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_35_8</t>
+          <t>model_1_35_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9995795550432884</v>
+        <v>0.9457158691989632</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8222563974626064</v>
+        <v>0.7041618878182843</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8116313229296965</v>
+        <v>0.7591831263627826</v>
       </c>
       <c r="E10" t="n">
-        <v>0.999754110651126</v>
+        <v>0.9719607679994718</v>
       </c>
       <c r="F10" t="n">
-        <v>0.001750113356860532</v>
+        <v>0.1742676497027343</v>
       </c>
       <c r="G10" t="n">
-        <v>1.188572288601585</v>
+        <v>1.978270818368385</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6737838356370263</v>
+        <v>0.8613879936357084</v>
       </c>
       <c r="I10" t="n">
-        <v>0.001301776944277846</v>
+        <v>0.06968788955413771</v>
       </c>
       <c r="J10" t="n">
-        <v>0.09039670401433259</v>
+        <v>1.137878428019126</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0418343561783916</v>
+        <v>0.4174537695394956</v>
       </c>
       <c r="L10" t="n">
-        <v>1.02690847722954</v>
+        <v>0.9260811835900776</v>
       </c>
       <c r="M10" t="n">
-        <v>0.04249320546918742</v>
+        <v>0.4240282491090702</v>
       </c>
       <c r="N10" t="n">
-        <v>142.6961494355913</v>
+        <v>37.49432588985741</v>
       </c>
       <c r="O10" t="n">
-        <v>284.0313219788077</v>
+        <v>74.45890947808324</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_35_9</t>
+          <t>model_1_35_0</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9996075567478694</v>
+        <v>0.9456044419321274</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8219683845520607</v>
+        <v>0.7036513840773375</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8121326327094519</v>
+        <v>0.7588455662110157</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9996758040777516</v>
+        <v>0.9728370418588053</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00163355551398531</v>
+        <v>0.1746253632300163</v>
       </c>
       <c r="G11" t="n">
-        <v>1.190498232260582</v>
+        <v>1.981684559234748</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6719906796224524</v>
+        <v>0.8625954267257163</v>
       </c>
       <c r="I11" t="n">
-        <v>0.001716344278206175</v>
+        <v>0.06751002405742047</v>
       </c>
       <c r="J11" t="n">
-        <v>0.09342580336005123</v>
+        <v>1.138222302258028</v>
       </c>
       <c r="K11" t="n">
-        <v>0.04041726752249971</v>
+        <v>0.4178819967766215</v>
       </c>
       <c r="L11" t="n">
-        <v>1.025116368136359</v>
+        <v>0.9259294528437481</v>
       </c>
       <c r="M11" t="n">
-        <v>0.04105379908353419</v>
+        <v>0.4244632204971105</v>
       </c>
       <c r="N11" t="n">
-        <v>142.8339926856283</v>
+        <v>37.49022476269963</v>
       </c>
       <c r="O11" t="n">
-        <v>284.1691652288447</v>
+        <v>74.45480835092545</v>
       </c>
     </row>
   </sheetData>
